--- a/data/linear_regression_results.xlsx
+++ b/data/linear_regression_results.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Training Time</t>
+          <t>Training Time (Seconds)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -457,16 +457,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.072847</v>
+        <v>0.074118</v>
       </c>
       <c r="B2" t="n">
-        <v>0.010856</v>
+        <v>0.01673</v>
       </c>
       <c r="C2" t="n">
-        <v>2.037921</v>
+        <v>2.044335</v>
       </c>
       <c r="D2" t="n">
-        <v>0.067866</v>
+        <v>0.076497</v>
       </c>
     </row>
   </sheetData>

--- a/data/linear_regression_results.xlsx
+++ b/data/linear_regression_results.xlsx
@@ -457,16 +457,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.074118</v>
+        <v>0.074707</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01673</v>
+        <v>0.008023000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>2.044335</v>
+        <v>1.988987</v>
       </c>
       <c r="D2" t="n">
-        <v>0.076497</v>
+        <v>0.068244</v>
       </c>
     </row>
   </sheetData>
